--- a/breeding_patterns - win, sum/all male, female F1 mice/EP - Mice_Births_By_Sex_and_Season.xlsx
+++ b/breeding_patterns - win, sum/all male, female F1 mice/EP - Mice_Births_By_Sex_and_Season.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">YearGroup</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">2019-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-2024</t>
   </si>
 </sst>
 </file>
@@ -494,17 +491,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>18</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -629,17 +615,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>27</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -764,17 +739,6 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>45</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
